--- a/biology/Histoire de la zoologie et de la botanique/Asa_Gray/Asa_Gray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Asa_Gray/Asa_Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asa Gray, né le 18 novembre 1810 et mort le 30 janvier 1888, est un botaniste américain, disciple et collaborateur de John Torrey, qui apporta des informations utiles à Charles Darwin. Il joua un rôle très important dans l'amélioration de la connaissance de la taxinomie des plantes nord-américaines.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des nombreux travaux de Gray sur la botanique, le plus connu est son Manual of the Botany of the Northern United States, from New England to Wisconsin and South to Ohio and Pennsylvania Inclusive. Ce livre, baptisé plus simplement le Manuel de Gray, a connu de très nombreuses éditions et reste un standard de guide de terrain.
-En 1842, Gray devient professeur d'histoire naturelle à l'université de Harvard[4]. Il donne à celle-ci une immense collection de livres et d'échantillons botaniques, ce qui permet la création d'un département de botanique, le Gray Herbarium qui lui est dédié.
-Par sa correspondance avec Darwin, Gray lui offre d'utiles informations pour son livre sur l'origine des espèces. Même s'il était théiste et pensait que Dieu était à l'origine de l'évolution, iI fut l'un des plus fervents supporters de Darwin aux États-Unis[4]. Il rassemble ses articles, sous le titre de Darwiniana, ouvrage qui a un grand impact sur la diffusion des idées darwiniennes.
-Gray est le premier président de l’American Academy of Arts and Sciences (1863-1873), il préside également l’American Association for the Advancement of Science (1872), il participe au conseil de la Smithsonian Institution (1874 -1888). Il devient membre étranger de la Royal Society en 1873. Il est enterré dans le cimetière de Mount Auburn à Cambridge au Massachusetts[4](p1010).
+En 1842, Gray devient professeur d'histoire naturelle à l'université de Harvard. Il donne à celle-ci une immense collection de livres et d'échantillons botaniques, ce qui permet la création d'un département de botanique, le Gray Herbarium qui lui est dédié.
+Par sa correspondance avec Darwin, Gray lui offre d'utiles informations pour son livre sur l'origine des espèces. Même s'il était théiste et pensait que Dieu était à l'origine de l'évolution, iI fut l'un des plus fervents supporters de Darwin aux États-Unis. Il rassemble ses articles, sous le titre de Darwiniana, ouvrage qui a un grand impact sur la diffusion des idées darwiniennes.
+Gray est le premier président de l’American Academy of Arts and Sciences (1863-1873), il préside également l’American Association for the Advancement of Science (1872), il participe au conseil de la Smithsonian Institution (1874 -1888). Il devient membre étranger de la Royal Society en 1873. Il est enterré dans le cimetière de Mount Auburn à Cambridge au Massachusetts(p1010).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1838-1843 : avec John Torrey (1796-1873) A flora of North America
 1845 et 1850 : Plantae Lindheimerianae: An enumeration of F. Lindheimer's collection of Texan plants, with remarks and descriptions of new species, etc., zusammen mit Georg Engelmann über die botanische Sammlung von Ferdinand Lindheimer, Boston Journal of Natural History, vol. 5 + 6, Boston
